--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C266119F-64BD-473D-AC15-2D3089A1B11D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CBFD81-B551-4109-87F1-B24243B2E6CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,11 @@
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ユーザー" sheetId="2" r:id="rId2"/>
     <sheet name="日用品" sheetId="3" r:id="rId3"/>
-    <sheet name="家事" sheetId="4" r:id="rId4"/>
-    <sheet name="育成" sheetId="5" r:id="rId5"/>
+    <sheet name="日用品項目" sheetId="6" r:id="rId4"/>
+    <sheet name="商品登録" sheetId="7" r:id="rId5"/>
+    <sheet name="商品" sheetId="8" r:id="rId6"/>
+    <sheet name="家事" sheetId="4" r:id="rId7"/>
+    <sheet name="育成" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -229,13 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日用品商品名</t>
-    <rPh sb="0" eb="6">
-      <t>ニチヨウヒンショウヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>値段</t>
     <rPh sb="0" eb="2">
       <t>ネダン</t>
@@ -287,16 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>累計使用日</t>
-    <rPh sb="0" eb="2">
-      <t>ルイケイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>シヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日用品フラグ</t>
     <rPh sb="0" eb="3">
       <t>ニチヨウヒン</t>
@@ -304,16 +312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家事の種類</t>
-    <rPh sb="0" eb="2">
-      <t>カジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標頻度</t>
     <rPh sb="0" eb="4">
       <t>モクヒョウヒンド</t>
@@ -345,6 +343,241 @@
     <t>植物フラグ</t>
     <rPh sb="0" eb="2">
       <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被りなし</t>
+    <rPh sb="0" eb="1">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上昂星</t>
+    <rPh sb="0" eb="4">
+      <t>イノウエコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品ID</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finish_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sum_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sum_preiod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily_memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計消費期間</t>
+    <rPh sb="0" eb="2">
+      <t>ルイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ショウヒキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sum_volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費期間</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日割使用量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒワリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品登録ID</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entry_daily_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事項目ID</t>
+    <rPh sb="0" eb="4">
+      <t>カジコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事項目</t>
+    <rPh sb="0" eb="4">
+      <t>カジコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品項目</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品登録ID</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒントウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entry_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -353,7 +586,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +610,20 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -435,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +699,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +1050,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1162,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N30" sqref="A1:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1445,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1202,13 +1457,17 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1477,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1518,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table users (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1267,57 +1528,85 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>user_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>user_name varchar (12),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_pass varchar (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1640,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889064A8-EFFB-4134-A122-DAE9A7949E91}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1747,7 +2036,9 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1756,8 +2047,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1765,9 +2056,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1775,20 +2068,633 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>daily  ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>item  ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>price  ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>start_date  ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>finish_date  ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L33" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>volume  ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>sum_price  ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>sum_volume  ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>sum_preiod  ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>daily_flag  ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">daily_memo  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE160D0C-A0A7-4A85-A9E1-0722F590BD6B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table daily_table (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>daily_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>daily varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1804,9 +2710,7 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1824,9 +2728,7 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1844,9 +2746,7 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1864,9 +2764,7 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1884,9 +2782,7 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1904,9 +2800,7 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1924,9 +2818,7 @@
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1944,9 +2836,7 @@
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1964,9 +2854,7 @@
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2132,16 +3020,1005 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C11A7-0FBE-499A-9B56-9729E05A51E8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>商品登録</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table item_table (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>entry_item_id  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>price  ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B762B47E-63AF-4D65-A07C-38D5758E45A3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>商品</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table item_table (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">item_id  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A1228-C80F-434C-926D-2094CB6A2B2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2262,8 +4139,8 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
+      <c r="B11" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2283,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2303,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2323,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2343,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2362,7 +4239,9 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2622,11 +4501,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A556C5B-08AF-477D-B65C-FF8A92F2A731}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2749,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2769,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>

--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CBFD81-B551-4109-87F1-B24243B2E6CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4014E-6B81-4ABB-AC0E-19C3AC5D5972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ユーザー" sheetId="2" r:id="rId2"/>
     <sheet name="日用品" sheetId="3" r:id="rId3"/>
     <sheet name="日用品項目" sheetId="6" r:id="rId4"/>
-    <sheet name="商品登録" sheetId="7" r:id="rId5"/>
+    <sheet name="商品詳細" sheetId="7" r:id="rId5"/>
     <sheet name="商品" sheetId="8" r:id="rId6"/>
     <sheet name="家事" sheetId="4" r:id="rId7"/>
     <sheet name="育成" sheetId="5" r:id="rId8"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -518,24 +518,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品項目</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品登録ID</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒントウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -556,10 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>entry_item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -579,6 +558,36 @@
     <rPh sb="0" eb="2">
       <t>タンイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_detail_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品詳細ID</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_detail_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_memo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -640,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -676,13 +685,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +725,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1931,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889064A8-EFFB-4134-A122-DAE9A7949E91}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2525,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE160D0C-A0A7-4A85-A9E1-0722F590BD6B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2709,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>daily varchar (20)</v>
+        <v>daily varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
@@ -2691,19 +2717,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>unit varchar (10)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3028,13 +3062,13 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3042,7 +3076,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>商品登録</v>
+        <v>商品詳細</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3074,7 +3108,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3086,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3126,7 +3160,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table item_table (</v>
+        <v>create table item_detail_table (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3134,14 +3168,18 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>47</v>
       </c>
@@ -3152,10 +3190,10 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>entry_item_id  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+        <v>item_detail_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3165,38 +3203,46 @@
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L11" t="e">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3213,16 +3259,20 @@
       <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>price  ,</v>
+        <v>price int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3235,11 +3285,15 @@
       <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
@@ -3250,6 +3304,12 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3277,7 +3337,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3523,6 +3583,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3531,7 +3592,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3571,7 +3632,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3583,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3631,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3659,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>55</v>
@@ -3764,7 +3825,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4014E-6B81-4ABB-AC0E-19C3AC5D5972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E3CBB-439E-4010-87AA-7EC08327F006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ユーザー" sheetId="2" r:id="rId2"/>
-    <sheet name="日用品" sheetId="3" r:id="rId3"/>
+    <sheet name="日用品(仮)" sheetId="3" r:id="rId3"/>
     <sheet name="日用品項目" sheetId="6" r:id="rId4"/>
     <sheet name="商品詳細" sheetId="7" r:id="rId5"/>
     <sheet name="商品" sheetId="8" r:id="rId6"/>
@@ -730,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889064A8-EFFB-4134-A122-DAE9A7949E91}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE160D0C-A0A7-4A85-A9E1-0722F590BD6B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E3CBB-439E-4010-87AA-7EC08327F006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA7162-A6E0-4136-B0D0-C1534E6F3D91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="日用品項目" sheetId="6" r:id="rId4"/>
     <sheet name="商品詳細" sheetId="7" r:id="rId5"/>
     <sheet name="商品" sheetId="8" r:id="rId6"/>
-    <sheet name="家事" sheetId="4" r:id="rId7"/>
-    <sheet name="育成" sheetId="5" r:id="rId8"/>
+    <sheet name="家事1(仮)" sheetId="4" r:id="rId7"/>
+    <sheet name="家事" sheetId="9" r:id="rId8"/>
+    <sheet name="育成" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -588,6 +589,26 @@
   </si>
   <si>
     <t>item_memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>houseworks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housework_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housework</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_memo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,7 +1463,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="A1:N30"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1957,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889064A8-EFFB-4134-A122-DAE9A7949E91}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2552,7 +2573,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3062,7 +3083,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3311,8 +3332,12 @@
       <c r="C15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3591,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B762B47E-63AF-4D65-A07C-38D5758E45A3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3697,7 +3722,9 @@
       <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>47</v>
@@ -3712,7 +3739,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">item_id  </v>
+        <v xml:space="preserve">item_id int </v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
@@ -3725,18 +3752,24 @@
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
@@ -4078,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A1228-C80F-434C-926D-2094CB6A2B2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4563,6 +4596,521 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC2CF72-BC04-4523-8122-A6D3FB276416}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>家事</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table houseworks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>housework_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>frequency varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">hw_memo int </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> varchar (50)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A556C5B-08AF-477D-B65C-FF8A92F2A731}">
   <dimension ref="A1:L30"/>
   <sheetViews>

--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA7162-A6E0-4136-B0D0-C1534E6F3D91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB4006E-A2EB-493B-AB02-07E8E4156C89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ユーザー" sheetId="2" r:id="rId2"/>
     <sheet name="日用品(仮)" sheetId="3" r:id="rId3"/>
     <sheet name="日用品項目" sheetId="6" r:id="rId4"/>
-    <sheet name="商品詳細" sheetId="7" r:id="rId5"/>
-    <sheet name="商品" sheetId="8" r:id="rId6"/>
-    <sheet name="家事1(仮)" sheetId="4" r:id="rId7"/>
-    <sheet name="家事" sheetId="9" r:id="rId8"/>
-    <sheet name="育成" sheetId="5" r:id="rId9"/>
+    <sheet name="商品使用履歴" sheetId="11" r:id="rId5"/>
+    <sheet name="商品詳細" sheetId="7" r:id="rId6"/>
+    <sheet name="商品" sheetId="8" r:id="rId7"/>
+    <sheet name="家事1(仮)" sheetId="4" r:id="rId8"/>
+    <sheet name="家事" sheetId="9" r:id="rId9"/>
+    <sheet name="家事実施日" sheetId="10" r:id="rId10"/>
+    <sheet name="育成" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="106">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -611,12 +613,82 @@
     <t>hw_memo</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>家事実施日ID</t>
+    <rPh sb="0" eb="4">
+      <t>カジジッシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事id</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_do_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事実施日</t>
+    <rPh sb="0" eb="5">
+      <t>カジジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housework_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴ID</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_history_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preiod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +721,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF424242"/>
       <name val="ＭＳ ゴシック"/>
@@ -723,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +831,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,6 +1540,1002 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4AB29-56FA-4DDE-B61A-AC974A128C62}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>家事実施日</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table housework_date (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>hw_memo int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>hw_do_date varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">hw_memo int </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve"> boolean </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A556C5B-08AF-477D-B65C-FF8A92F2A731}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
@@ -1978,7 +3056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889064A8-EFFB-4134-A122-DAE9A7949E91}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -3079,11 +4157,536 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E8B1D8-73A7-4DD4-88A0-66B6CF5560FB}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="str" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>商品使用履歴</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">RIGHT(CELL("filename",C4),LEN(CELL("filename",C4))-FIND("]", CELL("filename",C4)))</f>
+        <v>商品使用履歴</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table item_history (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>item_history_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>finish_date date ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C11A7-0FBE-499A-9B56-9729E05A51E8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3612,7 +5215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B762B47E-63AF-4D65-A07C-38D5758E45A3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4107,11 +5710,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A1228-C80F-434C-926D-2094CB6A2B2D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
@@ -4595,17 +6198,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC2CF72-BC04-4523-8122-A6D3FB276416}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5108,484 +6712,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A556C5B-08AF-477D-B65C-FF8A92F2A731}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8AE7D-A938-4A8B-BCF5-41D3DB47726D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD797454-23E3-46C5-8A5F-58FF54DA14BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="日用品使用履歴" sheetId="14" r:id="rId5"/>
     <sheet name="家事情報" sheetId="15" r:id="rId6"/>
     <sheet name="家事実施履歴" sheetId="16" r:id="rId7"/>
-    <sheet name="育成" sheetId="5" r:id="rId8"/>
+    <sheet name="分析" sheetId="17" r:id="rId8"/>
+    <sheet name="育成" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -346,10 +347,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>housework</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hw_memo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,13 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施日</t>
-    <rPh sb="0" eb="3">
-      <t>ジッシヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boolean</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,7 +436,135 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用終了予測日</t>
+    <t>使用終了日</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費期限</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品履歴ID</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_fin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_due</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事ID</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_freq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_his_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事実施フラグ</t>
+    <rPh sb="0" eb="4">
+      <t>カジジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hw_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_his_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_peiod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事備考</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品使用フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0(false)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>houseworks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事実施予定日</t>
+    <rPh sb="0" eb="4">
+      <t>カジジッシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用終了予定日</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
@@ -454,7 +572,7 @@
       <t>シュウリョウ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ヨソク</t>
+      <t>ヨテイ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>ビ</t>
@@ -462,117 +580,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用終了日</t>
-    <rPh sb="0" eb="4">
-      <t>シヨウシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費期限</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日用品履歴ID</t>
-    <rPh sb="0" eb="3">
-      <t>ニチヨウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_fin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_due</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家事ID</t>
-    <rPh sb="0" eb="2">
-      <t>カジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_freq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_history</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_his_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家事実施フラグ</t>
-    <rPh sb="0" eb="4">
-      <t>カジジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hw_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_his_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_peiod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家事備考</t>
-    <rPh sb="0" eb="2">
-      <t>カジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日用品使用フラグ</t>
-    <rPh sb="0" eb="3">
-      <t>ニチヨウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0(false)</t>
+    <t>hw_due</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -686,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +723,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1432,7 +1437,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1562,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2057,7 +2062,7 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="3">
@@ -2425,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF7D230-117F-4467-AD56-4E99EED01F8E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2490,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2596,10 +2601,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
@@ -2610,7 +2615,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2623,11 +2628,11 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -2655,9 +2660,9 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="3">
@@ -2666,7 +2671,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2683,16 +2688,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2709,16 +2714,16 @@
         <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2735,10 +2740,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3">
         <v>50</v>
@@ -2985,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC30C139-F1D7-462F-9CDE-66316CE42904}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3050,7 +3055,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3098,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -3133,7 +3138,7 @@
       <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3"/>
@@ -3156,13 +3161,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3182,13 +3187,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3208,13 +3213,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3232,10 +3237,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -3256,20 +3261,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
@@ -3528,7 +3535,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3599,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3632,7 +3639,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table housework (</v>
+        <v>create table houseworks (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3640,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -3675,7 +3682,7 @@
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3"/>
@@ -3701,7 +3708,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -3729,7 +3736,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -3752,10 +3759,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -4060,7 +4067,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4131,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4172,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -4202,12 +4209,12 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3"/>
@@ -4230,20 +4237,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -4251,17 +4256,17 @@
         <v>hw_date date ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="3"/>
@@ -4274,7 +4279,493 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>hw_due date ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">hw_flag boolean </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106B2518-E8D9-4158-9BCB-6FAAF068250B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="str">
+        <f ca="1">C4</f>
+        <v>分析</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">RIGHT(CELL("filename",C4),LEN(CELL("filename",C4))-FIND("]", CELL("filename",C4)))</f>
+        <v>分析</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4577,7 +5068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A556C5B-08AF-477D-B65C-FF8A92F2A731}">
   <dimension ref="A1:L30"/>
   <sheetViews>

--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD797454-23E3-46C5-8A5F-58FF54DA14BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C281E10-33F5-445C-B691-3BB2E7B10C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -581,6 +581,16 @@
   </si>
   <si>
     <t>hw_due</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事実施日</t>
+    <rPh sb="0" eb="4">
+      <t>カジジッシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2430,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF7D230-117F-4467-AD56-4E99EED01F8E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3534,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611020F-9013-4546-BD2D-902AEC9D4930}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -4066,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A932BD-6184-4F4E-A38B-F9F8DC45EEA8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4237,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>79</v>

--- a/外部設計/A5_DB定義書.xlsx
+++ b/外部設計/A5_DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C281E10-33F5-445C-B691-3BB2E7B10C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C75D622-0FA9-46E4-A371-5336BF02DECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -443,13 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費期限</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日用品履歴ID</t>
     <rPh sb="0" eb="3">
       <t>ニチヨウヒン</t>
@@ -590,6 +583,13 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費期間</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒキカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC30C139-F1D7-462F-9CDE-66316CE42904}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -3174,7 +3174,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>51</v>
@@ -3197,10 +3197,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>51</v>
@@ -3226,7 +3226,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
@@ -3247,10 +3247,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -3271,10 +3271,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>49</v>
@@ -3286,7 +3286,7 @@
         <v>39</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
@@ -3609,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3657,10 +3657,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -3718,7 +3718,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -3746,7 +3746,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -3769,7 +3769,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>47</v>
@@ -4076,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A932BD-6184-4F4E-A38B-F9F8DC45EEA8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4141,7 +4141,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4192,7 +4192,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -4219,10 +4219,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>37</v>
@@ -4247,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>51</v>
@@ -4271,10 +4271,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>51</v>
@@ -4297,10 +4297,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -4310,7 +4310,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
